--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3886.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3886.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.266874312988741</v>
+        <v>2.14035177230835</v>
       </c>
       <c r="B1">
-        <v>2.408064796568208</v>
+        <v>3.394202709197998</v>
       </c>
       <c r="C1">
-        <v>2.421932813473228</v>
+        <v>6.06645679473877</v>
       </c>
       <c r="D1">
-        <v>3.059037026097592</v>
+        <v>1.746901512145996</v>
       </c>
       <c r="E1">
-        <v>3.010485332699368</v>
+        <v>1.054918885231018</v>
       </c>
     </row>
   </sheetData>
